--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_Same.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_Same.xlsx
@@ -365,211 +365,211 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>35500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9783.9465534337</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13646.2208558363</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>22933.1022847508</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3375.93044016243</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4708.600167509</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>7913.01931869994</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>546.041465822591</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1347.16511820635</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2412.68520237153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>382.229026075814</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>943.015582744444</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1688.87964166007</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1316.56664537225</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3248.16478500864</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>5817.25209905136</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2063.06860232148</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2877.47788014439</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>4835.73402809441</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>655.249758987109</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1616.59814184762</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2895.22224284584</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91.0069109704318</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>224.527519701058</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>402.114200395255</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>52305.9347978116</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>71510.1964879334</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>98589.1392276515</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>36543.3111059203</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>49960.2840022921</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>68878.868151147</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7026.94256323648</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15899.4448888195</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>21072.9581202869</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8049.52002579702</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18213.1700778642</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>24139.5453094332</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6109.24484042575</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13823.0248473692</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>18320.8926941301</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>19245.432244088</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>43545.494583558</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>57714.7435085471</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4981.78763811542</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11271.9945107303</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>14939.7837419945</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>15863.060637157</v>
+        <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>35892.4035736411</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>47571.4166521403</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3356.15167199354</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>7593.76472301829</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>10064.6964156594</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4772.02815861582</v>
+        <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>10797.3842155416</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>14310.7402160158</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
